--- a/Solution_Design/Story Board/Storys/RA-35-Schwarzes Brett/Datenmodell.xlsx
+++ b/Solution_Design/Story Board/Storys/RA-35-Schwarzes Brett/Datenmodell.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>Kurzbeschreibung</t>
   </si>
@@ -177,10 +177,16 @@
     <t>Nummerische ID der Location</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprachbezeichung in der Sprache </t>
-  </si>
-  <si>
     <t xml:space="preserve">Beschreibungder Location </t>
+  </si>
+  <si>
+    <t>Sprachbezeichung in der Location</t>
+  </si>
+  <si>
+    <t>Deutschland weit = Loc_ID=0</t>
+  </si>
+  <si>
+    <t>PLz</t>
   </si>
 </sst>
 </file>
@@ -204,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -467,31 +473,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -509,12 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -528,9 +549,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -813,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.21875" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -829,294 +884,309 @@
     <col min="23" max="23" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:23" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P2" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="3" spans="1:23" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="G3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="M3" s="2" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+      <c r="M3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="4"/>
-      <c r="S3" s="2" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="22"/>
+      <c r="S3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="4"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
     </row>
     <row r="4" spans="1:23" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="T5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="20"/>
-      <c r="W5" s="25" t="s">
+      <c r="V5" s="24"/>
+      <c r="W5" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="16" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="21" t="s">
+      <c r="U6" s="2"/>
+      <c r="V6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="16" t="s">
-        <v>50</v>
+      <c r="W6" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="M7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="36"/>
+      <c r="S7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="16" t="s">
-        <v>51</v>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="61.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="10" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Solution_Design/Story Board/Storys/RA-35-Schwarzes Brett/Datenmodell.xlsx
+++ b/Solution_Design/Story Board/Storys/RA-35-Schwarzes Brett/Datenmodell.xlsx
@@ -549,30 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -586,6 +562,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="P3" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S4:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.21875" defaultRowHeight="35.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -885,39 +885,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="G3" s="25" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="G3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="M3" s="20" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
+      <c r="M3" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="22"/>
-      <c r="S3" s="20" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="31"/>
+      <c r="S3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="22"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="31"/>
     </row>
     <row r="4" spans="1:23" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -929,7 +929,7 @@
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="32" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -974,7 +974,7 @@
       <c r="U4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="V4" s="23" t="s">
+      <c r="V4" s="32" t="s">
         <v>31</v>
       </c>
       <c r="W4" s="8" t="s">
@@ -991,7 +991,7 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1008,19 +1008,19 @@
       <c r="K5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="24" t="s">
         <v>43</v>
       </c>
       <c r="S5" s="16" t="s">
@@ -1032,7 +1032,7 @@
       <c r="U5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="V5" s="24"/>
+      <c r="V5" s="33"/>
       <c r="W5" s="17" t="s">
         <v>34</v>
       </c>
@@ -1064,19 +1064,19 @@
       <c r="K6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="M6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="35" t="s">
+      <c r="Q6" s="27" t="s">
         <v>46</v>
       </c>
       <c r="S6" s="5" t="s">
@@ -1117,7 +1117,7 @@
       <c r="P7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="36"/>
+      <c r="Q7" s="28"/>
       <c r="S7" s="6" t="s">
         <v>38</v>
       </c>
